--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed1/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.338000000000001</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.368</v>
+        <v>-12.065</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.362</v>
+        <v>5.117</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.47</v>
+        <v>-11.099</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.372</v>
+        <v>4.875</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.962</v>
+        <v>-12.192</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.406</v>
+        <v>-11.951</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.12</v>
+        <v>-12.31</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.392</v>
+        <v>5.218</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.87</v>
+        <v>5.326</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.208</v>
+        <v>-12.867</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.56</v>
+        <v>6.943</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,10 +992,10 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.902000000000001</v>
+        <v>9.221</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.69</v>
+        <v>-12.206</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.06</v>
+        <v>-12.31</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.154</v>
+        <v>-12.304</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.906</v>
+        <v>-12.001</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.942</v>
+        <v>5.078999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>4.61</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.184</v>
+        <v>-10.775</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.282</v>
+        <v>-11.216</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.886</v>
+        <v>5.009</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.482</v>
+        <v>-11.857</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.317</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.446</v>
+        <v>-13.522</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.95</v>
+        <v>-11.539</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.134</v>
+        <v>5.829000000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
